--- a/santha.xlsx
+++ b/santha.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="318" count="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="325" count="325">
   <si>
     <t>S.NO</t>
   </si>
@@ -968,6 +968,82 @@
   </si>
   <si>
     <t>Emery</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>S.NO</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>S.NO</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>EmpID</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>FirstName</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>DepartmentType</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Performance Score</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Current Employee Rating</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -977,30 +1053,56 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Arial"/>
       <sz val="11"/>
     </font>
     <font>
       <name val="Calibri"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1009,11 +1111,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1090,97 +1195,87 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:multiLvlStrRef>
+            <c:strRef>
               <c:f>'CREDIT RATING'!$L$415:$P$419</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="5"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Fully Meets</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>Fully Meets</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>Fully Meets</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Fully Meets</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Fully Meets</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Sales</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>Sales</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>Sales</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Sales</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Sales</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Mathias</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>Simeon</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>Magdalena</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Gwendolyn</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Demarion</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>2638</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>2639</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2640</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>2641</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>2642</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>223</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>224</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>225</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>226</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>227</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
+              <c:strCache>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2638</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mathias</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sales</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Fully Meets</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2639</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Simeon</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sales</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Fully Meets</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2640</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Magdalena</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Sales</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Fully Meets</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2641</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Gwendolyn</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Sales</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Fully Meets</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2642</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Demarion</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Sales</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Fully Meets</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1919,15 +2014,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>246338</xdr:colOff>
-      <xdr:row>397</xdr:row>
-      <xdr:rowOff>114076</xdr:rowOff>
+      <xdr:colOff>192827</xdr:colOff>
+      <xdr:row>420</xdr:row>
+      <xdr:rowOff>14882</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>717796</xdr:colOff>
-      <xdr:row>412</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>1323262</xdr:colOff>
+      <xdr:row>434</xdr:row>
+      <xdr:rowOff>168175</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2236,10 +2331,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AQ419"/>
+  <dimension ref="A1:BU419"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="G379" zoomScale="30">
-      <selection activeCell="M41" sqref="L23:M41"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="G379" zoomScale="37">
+      <selection activeCell="N452" sqref="N452"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" customHeight="1" defaultColWidth="12"/>
@@ -2252,6 +2347,11 @@
     <col min="7" max="7" customWidth="1" width="20.5" style="0"/>
     <col min="8" max="8" customWidth="1" width="14.0" style="0"/>
     <col min="9" max="11" customWidth="1" width="7.6289062" style="0"/>
+    <col min="13" max="13" customWidth="1" width="13.644531" style="0"/>
+    <col min="14" max="14" customWidth="1" width="13.0859375" style="0"/>
+    <col min="15" max="15" customWidth="1" width="14.785156" style="0"/>
+    <col min="16" max="16" customWidth="1" width="16.304688" style="0"/>
+    <col min="17" max="17" customWidth="1" width="23.867188" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="8:8" ht="15.0"/>
@@ -2660,103 +2760,123 @@
     <row r="404" spans="8:8" ht="15.75" customHeight="1"/>
     <row r="405" spans="8:8" ht="15.75" customHeight="1"/>
     <row r="406" spans="8:8" ht="15.75" customHeight="1"/>
+    <row r="414" spans="8:8">
+      <c r="L414" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="M414" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="N414" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="O414" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="P414" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q414" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
     <row r="415" spans="8:8" ht="15.0">
-      <c r="L415" s="1">
+      <c r="L415" s="2">
         <v>223.0</v>
       </c>
-      <c r="M415" s="1">
+      <c r="M415" s="2">
         <v>2638.0</v>
       </c>
-      <c r="N415" s="1" t="s">
+      <c r="N415" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="O415" s="1" t="s">
+      <c r="O415" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="P415" s="1" t="s">
+      <c r="P415" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="Q415" s="1">
+      <c r="Q415" s="2">
         <v>2.0</v>
       </c>
     </row>
     <row r="416" spans="8:8" ht="15.0">
-      <c r="L416" s="1">
+      <c r="L416" s="2">
         <v>224.0</v>
       </c>
-      <c r="M416" s="1">
+      <c r="M416" s="2">
         <v>2639.0</v>
       </c>
-      <c r="N416" s="1" t="s">
+      <c r="N416" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="O416" s="1" t="s">
+      <c r="O416" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="P416" s="1" t="s">
+      <c r="P416" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="Q416" s="1">
+      <c r="Q416" s="2">
         <v>2.0</v>
       </c>
     </row>
     <row r="417" spans="8:8" ht="15.0">
-      <c r="L417" s="1">
+      <c r="L417" s="2">
         <v>225.0</v>
       </c>
-      <c r="M417" s="1">
+      <c r="M417" s="2">
         <v>2640.0</v>
       </c>
-      <c r="N417" s="1" t="s">
+      <c r="N417" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="O417" s="1" t="s">
+      <c r="O417" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="P417" s="1" t="s">
+      <c r="P417" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="Q417" s="1">
+      <c r="Q417" s="2">
         <v>4.0</v>
       </c>
     </row>
     <row r="418" spans="8:8" ht="15.0">
-      <c r="L418" s="1">
+      <c r="L418" s="2">
         <v>226.0</v>
       </c>
-      <c r="M418" s="1">
+      <c r="M418" s="2">
         <v>2641.0</v>
       </c>
-      <c r="N418" s="1" t="s">
+      <c r="N418" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="O418" s="1" t="s">
+      <c r="O418" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="P418" s="1" t="s">
+      <c r="P418" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="Q418" s="1">
+      <c r="Q418" s="2">
         <v>2.0</v>
       </c>
     </row>
     <row r="419" spans="8:8" ht="15.0">
-      <c r="L419" s="1">
+      <c r="L419" s="2">
         <v>227.0</v>
       </c>
-      <c r="M419" s="1">
+      <c r="M419" s="2">
         <v>2642.0</v>
       </c>
-      <c r="N419" s="1" t="s">
+      <c r="N419" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="O419" s="1" t="s">
+      <c r="O419" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="P419" s="1" t="s">
+      <c r="P419" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="Q419" s="1">
+      <c r="Q419" s="2">
         <v>4.0</v>
       </c>
     </row>
@@ -2768,7 +2888,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
